--- a/res6.xlsx
+++ b/res6.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1180236</t>
+          <t>1190236</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1180255</t>
+          <t>1190255</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
